--- a/pred_ohlcv/54_23/2020-01-19 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2020-01-19 WOM ohlcv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>open</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>OBV</t>
   </si>
   <si>
     <t>trade_state</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F268"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -426,10 +432,13 @@
         <v>72.05</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2540.9164</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,10 +455,13 @@
         <v>72.3</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>932.3524</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,10 +478,13 @@
         <v>72.29000000000001</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>19336.8261</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,10 +501,13 @@
         <v>72.45999999999999</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10200</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -506,10 +524,13 @@
         <v>72.8</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>11358.7366</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -526,10 +547,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>7421.6619</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -546,10 +570,13 @@
         <v>74.47</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>9.3468</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -566,10 +593,13 @@
         <v>72.41</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>18701.6175</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,10 +616,13 @@
         <v>72.41</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>516.0469000000001</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -606,10 +639,13 @@
         <v>72.41</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>12847.5939</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -626,10 +662,13 @@
         <v>72.41</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -646,10 +685,13 @@
         <v>71.61</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>10733.6023</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -666,10 +708,13 @@
         <v>71.59999999999999</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>70380.42939999999</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -686,10 +731,13 @@
         <v>71.09999999999999</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>50026.1944</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -706,10 +754,13 @@
         <v>70</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>230387.6547</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,10 +777,13 @@
         <v>70</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>26943.0336</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -746,10 +800,13 @@
         <v>70.02</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>90.41289999999999</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -766,10 +823,13 @@
         <v>70.03</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>40.6858</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -786,10 +846,13 @@
         <v>70.04000000000001</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>75.3704</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -806,10 +869,13 @@
         <v>70.02</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>79.63079999999999</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -826,10 +892,13 @@
         <v>70</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>232118.2818</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -846,10 +915,13 @@
         <v>69.5</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>120150.252416129</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -866,10 +938,13 @@
         <v>69</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>53520.4047</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -886,10 +961,13 @@
         <v>68.5</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>26.1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -906,10 +984,13 @@
         <v>69</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>4878.7687</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -926,10 +1007,13 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1222</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -946,10 +1030,13 @@
         <v>69.27</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>39129.6428</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -966,10 +1053,13 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>29762.6102</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -986,10 +1076,13 @@
         <v>68.5</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>4046.4494</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1006,10 +1099,13 @@
         <v>69.2</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>7.311</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1026,10 +1122,13 @@
         <v>68.5</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>4038.4494</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1046,10 +1145,13 @@
         <v>68.53</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>9803.153200000001</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1066,10 +1168,13 @@
         <v>68.53</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>8963.298000000001</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1086,10 +1191,13 @@
         <v>68.52</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>7500</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1106,10 +1214,13 @@
         <v>68.5</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>7693.241</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1126,10 +1237,13 @@
         <v>69.89</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>13447.3705</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1146,10 +1260,13 @@
         <v>69.89</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>9333.3495</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1166,10 +1283,13 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>7636.4254</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1186,10 +1306,13 @@
         <v>68.31999999999999</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>11274.617</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1206,10 +1329,13 @@
         <v>68.31</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>21064.8803</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1226,10 +1352,13 @@
         <v>68.27</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>6206.013</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1246,10 +1375,13 @@
         <v>68.25</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>2734.1608</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1266,10 +1398,13 @@
         <v>68.8</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>290.6976744186047</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1286,10 +1421,13 @@
         <v>68.20999999999999</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>15046.4285</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1306,10 +1444,13 @@
         <v>68.22</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>293.057</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1326,10 +1467,13 @@
         <v>68.22</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>2910.3649</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1346,10 +1490,13 @@
         <v>68.20999999999999</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>7693.2411</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1366,10 +1513,13 @@
         <v>68.79000000000001</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>8928.198399999999</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1386,10 +1536,13 @@
         <v>69</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>581.0145</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1406,10 +1559,13 @@
         <v>68.20999999999999</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>8347.1839</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1426,10 +1582,13 @@
         <v>69.29000000000001</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1446,10 +1605,13 @@
         <v>68.22</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>6259.9911</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1466,10 +1628,13 @@
         <v>69.19</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1486,10 +1651,13 @@
         <v>68.20999999999999</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>9545.538200000001</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1506,10 +1674,13 @@
         <v>68.20999999999999</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>457.4532</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1526,10 +1697,13 @@
         <v>68.15000000000001</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>1203.2026</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1546,10 +1720,13 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>27054.4317</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1566,10 +1743,13 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>15609.2882</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1586,10 +1766,13 @@
         <v>68.09</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>9440.854600000001</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1606,10 +1789,13 @@
         <v>68.03</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>600</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1626,10 +1812,13 @@
         <v>68.03</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>3000</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1646,10 +1835,13 @@
         <v>68.03</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>9036.785900000001</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1666,10 +1858,13 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>40007.7963</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1686,10 +1881,13 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>10001.949</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1706,10 +1904,13 @@
         <v>69.04000000000001</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1205.8303</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1726,10 +1927,13 @@
         <v>68.69</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>1396.4119</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1746,10 +1950,13 @@
         <v>69.09</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>25.516</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1766,10 +1973,13 @@
         <v>69.09</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>9811.289000000001</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1786,10 +1996,13 @@
         <v>69.09</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>17560.1731</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1806,10 +2019,13 @@
         <v>69.09</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>13611.3719</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1826,10 +2042,13 @@
         <v>68.03</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>44236.7141</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1846,10 +2065,13 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>54.259</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1866,10 +2088,13 @@
         <v>68</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>1602.2422</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1886,10 +2111,13 @@
         <v>67.8</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>11641.122</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1906,10 +2134,13 @@
         <v>67.8</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>3418.7448</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1926,10 +2157,13 @@
         <v>67.64</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>189.3495</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1946,10 +2180,13 @@
         <v>67.63</v>
       </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>170.4383</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1966,10 +2203,13 @@
         <v>67.09999999999999</v>
       </c>
       <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>10478.4959</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1986,10 +2226,13 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>33210.2362</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2006,10 +2249,13 @@
         <v>66.2</v>
       </c>
       <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>68284.4578</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2026,10 +2272,13 @@
         <v>66.2</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>3844.7195</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2046,10 +2295,13 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>6268.719</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2066,10 +2318,13 @@
         <v>66.5</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>9305.6967</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2086,10 +2341,13 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>4654.5436</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2106,10 +2364,13 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>2884.8388</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2126,10 +2387,13 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>1459.366881503915</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2146,10 +2410,13 @@
         <v>66.77</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>1852.376</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2166,10 +2433,13 @@
         <v>66.77</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2186,10 +2456,13 @@
         <v>66.78</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>4320.9988</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2206,10 +2479,13 @@
         <v>66.78</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>738.1348</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2226,10 +2502,13 @@
         <v>66.78</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.8652</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2246,10 +2525,13 @@
         <v>66.2</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>12589.719</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2266,10 +2548,13 @@
         <v>66.2</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>28755.7513</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2286,10 +2571,13 @@
         <v>66.59</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>18676.242</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2306,10 +2594,13 @@
         <v>66.59</v>
       </c>
       <c r="F96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>12926.0642</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2326,10 +2617,13 @@
         <v>66.59</v>
       </c>
       <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>13560.6064</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2346,10 +2640,13 @@
         <v>66.78</v>
       </c>
       <c r="F98">
+        <v>616.8745</v>
+      </c>
+      <c r="G98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2366,10 +2663,13 @@
         <v>67.56999999999999</v>
       </c>
       <c r="F99">
+        <v>4439.840165754033</v>
+      </c>
+      <c r="G99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2386,10 +2686,13 @@
         <v>67.55</v>
       </c>
       <c r="F100">
+        <v>1039.659511472983</v>
+      </c>
+      <c r="G100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2406,10 +2709,13 @@
         <v>66.8</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>7326.7116</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2426,10 +2732,13 @@
         <v>66.59</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>17115.9778</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2446,10 +2755,13 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2466,10 +2778,13 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2486,10 +2801,13 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>5524.512</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2506,10 +2824,13 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>1265.917</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2526,10 +2847,13 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>7646.1965</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2546,10 +2870,13 @@
         <v>66.8</v>
       </c>
       <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>1965.7939</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2566,10 +2893,13 @@
         <v>66.81</v>
       </c>
       <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>3578.5808</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2586,10 +2916,13 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>19115.5142</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2606,10 +2939,13 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>7454.345</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2626,10 +2962,13 @@
         <v>66.73</v>
       </c>
       <c r="F112">
+        <v>1017.367</v>
+      </c>
+      <c r="G112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2646,10 +2985,13 @@
         <v>67.47</v>
       </c>
       <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2666,10 +3008,13 @@
         <v>66.8</v>
       </c>
       <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>8967.812599999999</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2686,10 +3031,13 @@
         <v>66.8</v>
       </c>
       <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>8045.618</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2706,10 +3054,13 @@
         <v>66.8</v>
       </c>
       <c r="F116">
+        <v>971.749</v>
+      </c>
+      <c r="G116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2726,10 +3077,13 @@
         <v>67.45</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>35214.68650370968</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2746,10 +3100,13 @@
         <v>68.2</v>
       </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>82.67829999999999</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2766,10 +3123,13 @@
         <v>68.2</v>
       </c>
       <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>750</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2786,10 +3146,13 @@
         <v>68.2</v>
       </c>
       <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>10545.72229629032</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2806,10 +3169,13 @@
         <v>68.45999999999999</v>
       </c>
       <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>16227.5785</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2826,10 +3192,13 @@
         <v>69.19</v>
       </c>
       <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>2000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2846,10 +3215,13 @@
         <v>69.19</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>380</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2866,10 +3238,13 @@
         <v>70.3</v>
       </c>
       <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>25640.2544</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2886,10 +3261,13 @@
         <v>71.43000000000001</v>
       </c>
       <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>15741.9529</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2906,10 +3284,13 @@
         <v>72.70999999999999</v>
       </c>
       <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>26759.22792119717</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2926,10 +3307,13 @@
         <v>74</v>
       </c>
       <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>39932.12531034977</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2946,10 +3330,13 @@
         <v>74</v>
       </c>
       <c r="F128">
+        <v>16605.62632320615</v>
+      </c>
+      <c r="G128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2966,10 +3353,13 @@
         <v>72.98999999999999</v>
       </c>
       <c r="F129">
+        <v>60614.9604</v>
+      </c>
+      <c r="G129">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2986,10 +3376,13 @@
         <v>68.91</v>
       </c>
       <c r="F130">
+        <v>25624.91931371742</v>
+      </c>
+      <c r="G130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3006,10 +3399,13 @@
         <v>70.20999999999999</v>
       </c>
       <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>21318.2509</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3026,10 +3422,13 @@
         <v>69.53</v>
       </c>
       <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>8292.243700000001</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3046,10 +3445,13 @@
         <v>70.20999999999999</v>
       </c>
       <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>2510.3232</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3066,10 +3468,13 @@
         <v>70.37</v>
       </c>
       <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>1358.0763</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3086,10 +3491,13 @@
         <v>72</v>
       </c>
       <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3106,10 +3514,13 @@
         <v>71.89</v>
       </c>
       <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3126,10 +3537,13 @@
         <v>70.02</v>
       </c>
       <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>3157.6115</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3146,10 +3560,13 @@
         <v>70.02</v>
       </c>
       <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>16791.2479</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3166,10 +3583,13 @@
         <v>69.93000000000001</v>
       </c>
       <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>20500.3236</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3186,10 +3606,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>423.291</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3206,10 +3629,13 @@
         <v>70.11</v>
       </c>
       <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>1677.0394</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3226,10 +3652,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>2040.6684</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3246,10 +3675,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>1332.7775</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3266,10 +3698,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3286,10 +3721,13 @@
         <v>70.2</v>
       </c>
       <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>18.1818</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3306,10 +3744,13 @@
         <v>71.5</v>
       </c>
       <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>18.1818</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3326,10 +3767,13 @@
         <v>70.69</v>
       </c>
       <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>8105.8499</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3346,10 +3790,13 @@
         <v>70.5</v>
       </c>
       <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>2577.6561</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3366,10 +3813,13 @@
         <v>71.94</v>
       </c>
       <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>116.4836</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3386,10 +3836,13 @@
         <v>70.7</v>
       </c>
       <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>11035.52998448492</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3406,10 +3859,13 @@
         <v>70.8</v>
       </c>
       <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>1549.4998</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3426,10 +3882,13 @@
         <v>70.81999999999999</v>
       </c>
       <c r="F152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>16334.8241</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3446,10 +3905,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>2884.7132</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3466,10 +3928,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>364.1241</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3486,10 +3951,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>245.7929</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3506,10 +3974,13 @@
         <v>70.3</v>
       </c>
       <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>962.749</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3526,10 +3997,13 @@
         <v>70.16</v>
       </c>
       <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>3042.8071</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3546,10 +4020,13 @@
         <v>70.16</v>
       </c>
       <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>1450.0641</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3566,10 +4043,13 @@
         <v>70.13</v>
       </c>
       <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>62406.8167</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3586,10 +4066,13 @@
         <v>70.91</v>
       </c>
       <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>691.8357999999999</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3606,10 +4089,13 @@
         <v>71.89</v>
       </c>
       <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>22.8116</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3626,10 +4112,13 @@
         <v>70.90000000000001</v>
       </c>
       <c r="F162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>9702.676299999999</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3646,10 +4135,13 @@
         <v>70.13</v>
       </c>
       <c r="F163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>1135.5785</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3666,10 +4158,13 @@
         <v>70.13</v>
       </c>
       <c r="F164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>298.0617</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3686,10 +4181,13 @@
         <v>70.05</v>
       </c>
       <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>909.7637</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3706,10 +4204,13 @@
         <v>69.59999999999999</v>
       </c>
       <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>1726.8833</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3726,10 +4227,13 @@
         <v>69.59999999999999</v>
       </c>
       <c r="F167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>337.724</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3746,10 +4250,13 @@
         <v>71.2</v>
       </c>
       <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>1936.273799733408</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3766,10 +4273,13 @@
         <v>71.27</v>
       </c>
       <c r="F169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>6072.880300266592</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3786,10 +4296,13 @@
         <v>71.8</v>
       </c>
       <c r="F170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>2878.319948610725</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3806,10 +4319,13 @@
         <v>71.98</v>
       </c>
       <c r="F171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>2314.905451389275</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3826,10 +4342,13 @@
         <v>71.40000000000001</v>
       </c>
       <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>6144.2795</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3846,10 +4365,13 @@
         <v>70.76000000000001</v>
       </c>
       <c r="F173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+        <v>151.1953</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3866,10 +4388,13 @@
         <v>70</v>
       </c>
       <c r="F174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>3819.6014</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3886,10 +4411,13 @@
         <v>70.2</v>
       </c>
       <c r="F175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>423.8133</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3906,10 +4434,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>1775.6889</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3926,10 +4457,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>5619.8486</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3946,10 +4480,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>430.6108</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3966,10 +4503,13 @@
         <v>70</v>
       </c>
       <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>8719.972900000001</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3986,10 +4526,13 @@
         <v>70</v>
       </c>
       <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>58774.7716</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4006,10 +4549,13 @@
         <v>69.90000000000001</v>
       </c>
       <c r="F181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>4677.1205</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4026,10 +4572,13 @@
         <v>69.51000000000001</v>
       </c>
       <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>523.6355</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4046,10 +4595,13 @@
         <v>68.72</v>
       </c>
       <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>114515.9633</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4066,10 +4618,13 @@
         <v>68.72</v>
       </c>
       <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>1329.5908</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4086,10 +4641,13 @@
         <v>68.72</v>
       </c>
       <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>61841.7928</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4106,10 +4664,13 @@
         <v>68.73</v>
       </c>
       <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>2093.3289</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4126,10 +4687,13 @@
         <v>68.73</v>
       </c>
       <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>3876.052</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4146,10 +4710,13 @@
         <v>68.72</v>
       </c>
       <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>717.4081</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4166,10 +4733,13 @@
         <v>68.72</v>
       </c>
       <c r="F189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>1855.7173</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4186,10 +4756,13 @@
         <v>68.72</v>
       </c>
       <c r="F190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>5602.1946</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4206,10 +4779,13 @@
         <v>68.72</v>
       </c>
       <c r="F191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>1842.6494</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4226,10 +4802,13 @@
         <v>68.72</v>
       </c>
       <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>8409.532300000001</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4246,10 +4825,13 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>2238.3358</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4266,10 +4848,13 @@
         <v>68.72</v>
       </c>
       <c r="F194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>9725.9023</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4286,10 +4871,13 @@
         <v>68.54000000000001</v>
       </c>
       <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>8905.0725</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4306,10 +4894,13 @@
         <v>69.3</v>
       </c>
       <c r="F196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>5921.9591</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4326,10 +4917,13 @@
         <v>69.40000000000001</v>
       </c>
       <c r="F197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>29.4965</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4346,10 +4940,13 @@
         <v>68.5</v>
       </c>
       <c r="F198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>92265.713</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4366,10 +4963,13 @@
         <v>69.79000000000001</v>
       </c>
       <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>518.6989540048718</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4386,10 +4986,13 @@
         <v>69.79000000000001</v>
       </c>
       <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>5001.6731</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4406,10 +5009,13 @@
         <v>69.79000000000001</v>
       </c>
       <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>3268.4593</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4426,10 +5032,13 @@
         <v>68.5</v>
       </c>
       <c r="F202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>13401.5013</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4446,10 +5055,13 @@
         <v>69.59</v>
       </c>
       <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4466,10 +5078,13 @@
         <v>69.59</v>
       </c>
       <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>1459.7631</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4486,10 +5101,13 @@
         <v>69.59</v>
       </c>
       <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>395.7399</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4506,10 +5124,13 @@
         <v>69.59</v>
       </c>
       <c r="F206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>3976.1255</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4526,10 +5147,13 @@
         <v>69.7</v>
       </c>
       <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>2069.0102</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4546,10 +5170,13 @@
         <v>68.3</v>
       </c>
       <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>12428.1659</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4566,10 +5193,13 @@
         <v>69.59</v>
       </c>
       <c r="F209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>29.6186</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4586,10 +5216,13 @@
         <v>68.3</v>
       </c>
       <c r="F210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>120</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4606,10 +5239,13 @@
         <v>68.34</v>
       </c>
       <c r="F211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>2404.7364</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4626,10 +5262,13 @@
         <v>69.39</v>
       </c>
       <c r="F212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>939.4596</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4646,10 +5285,13 @@
         <v>68.34</v>
       </c>
       <c r="F213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>251.9952</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4666,10 +5308,13 @@
         <v>69.39</v>
       </c>
       <c r="F214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>700</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4686,10 +5331,13 @@
         <v>69.39</v>
       </c>
       <c r="F215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>1400</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4706,10 +5354,13 @@
         <v>68.34</v>
       </c>
       <c r="F216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+        <v>4540.794</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4726,10 +5377,13 @@
         <v>68.3</v>
       </c>
       <c r="F217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+        <v>2270.397</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4746,10 +5400,13 @@
         <v>68.3</v>
       </c>
       <c r="F218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+        <v>13795.2514</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4766,10 +5423,13 @@
         <v>69.29000000000001</v>
       </c>
       <c r="F219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>7.3</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4786,10 +5446,13 @@
         <v>68.34999999999999</v>
       </c>
       <c r="F220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>14827.7606</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4806,10 +5469,13 @@
         <v>68.36</v>
       </c>
       <c r="F221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+        <v>13610.5456</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4826,10 +5492,13 @@
         <v>69.29000000000001</v>
       </c>
       <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>4159.406</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4846,10 +5515,13 @@
         <v>69.29000000000001</v>
       </c>
       <c r="F223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>1840.2402</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4866,10 +5538,13 @@
         <v>69.29000000000001</v>
       </c>
       <c r="F224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+        <v>3355.8962</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4886,10 +5561,13 @@
         <v>69.7</v>
       </c>
       <c r="F225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+        <v>3998.964423298467</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4906,10 +5584,13 @@
         <v>68.94</v>
       </c>
       <c r="F226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+        <v>10445.4983</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4926,10 +5607,13 @@
         <v>69</v>
       </c>
       <c r="F227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+        <v>4989.5695</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4946,10 +5630,13 @@
         <v>69.78</v>
       </c>
       <c r="F228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+        <v>4010.0198</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4966,10 +5653,13 @@
         <v>69.79000000000001</v>
       </c>
       <c r="F229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+        <v>16085.51977670153</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4986,10 +5676,13 @@
         <v>70.63</v>
       </c>
       <c r="F230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>161.7863</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5006,10 +5699,13 @@
         <v>70.63</v>
       </c>
       <c r="F231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>661.6052</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5026,10 +5722,13 @@
         <v>70.69</v>
       </c>
       <c r="F232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+        <v>5571.1194</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5046,10 +5745,13 @@
         <v>70.90000000000001</v>
       </c>
       <c r="F233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+        <v>4591.0567</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5066,10 +5768,13 @@
         <v>70.98999999999999</v>
       </c>
       <c r="F234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+        <v>2151.9741</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5086,10 +5791,13 @@
         <v>71</v>
       </c>
       <c r="F235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+        <v>5948.249</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5106,10 +5814,13 @@
         <v>70.13</v>
       </c>
       <c r="F236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+        <v>1562.8465</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5126,10 +5837,13 @@
         <v>70.12</v>
       </c>
       <c r="F237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+        <v>12323.4002</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5146,10 +5860,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+        <v>6933.9776</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5166,10 +5883,13 @@
         <v>70.98999999999999</v>
       </c>
       <c r="F239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+        <v>1405.1364</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5186,10 +5906,13 @@
         <v>70.20999999999999</v>
       </c>
       <c r="F240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+        <v>6240.5798</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5206,10 +5929,13 @@
         <v>70.98999999999999</v>
       </c>
       <c r="F241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+        <v>42.14</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5226,10 +5952,13 @@
         <v>70.98999999999999</v>
       </c>
       <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+        <v>20000</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5246,10 +5975,13 @@
         <v>70.98999999999999</v>
       </c>
       <c r="F243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+        <v>799.4788</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5266,10 +5998,13 @@
         <v>71.2</v>
       </c>
       <c r="F244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+        <v>1654.6165</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5286,10 +6021,13 @@
         <v>71.23999999999999</v>
       </c>
       <c r="F245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+        <v>10174.859</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5306,10 +6044,13 @@
         <v>71.25</v>
       </c>
       <c r="F246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+        <v>2265.508</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5326,10 +6067,13 @@
         <v>70.25</v>
       </c>
       <c r="F247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+        <v>5232.3445</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5346,10 +6090,13 @@
         <v>70.65000000000001</v>
       </c>
       <c r="F248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+        <v>5001.6731</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5366,10 +6113,13 @@
         <v>71</v>
       </c>
       <c r="F249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>21350.8964</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5386,10 +6136,13 @@
         <v>70.90000000000001</v>
       </c>
       <c r="F250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>14.1605</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5406,10 +6159,13 @@
         <v>70.65000000000001</v>
       </c>
       <c r="F251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+        <v>70.4036</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5426,10 +6182,13 @@
         <v>70.90000000000001</v>
       </c>
       <c r="F252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+        <v>2081.8941</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5446,10 +6205,13 @@
         <v>71</v>
       </c>
       <c r="F253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+        <v>4103.2685</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5466,10 +6228,13 @@
         <v>71</v>
       </c>
       <c r="F254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+        <v>6910.5479</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5486,10 +6251,13 @@
         <v>71</v>
       </c>
       <c r="F255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+        <v>1767.0671</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5506,10 +6274,13 @@
         <v>71</v>
       </c>
       <c r="F256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+        <v>5772.6384</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5526,10 +6297,13 @@
         <v>70.65000000000001</v>
       </c>
       <c r="F257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+        <v>8500</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5546,10 +6320,13 @@
         <v>70.5</v>
       </c>
       <c r="F258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+        <v>400</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5566,10 +6343,13 @@
         <v>70.22</v>
       </c>
       <c r="F259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+        <v>4191.0567</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5586,10 +6366,13 @@
         <v>70.23</v>
       </c>
       <c r="F260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5606,10 +6389,13 @@
         <v>70.23</v>
       </c>
       <c r="F261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+        <v>455.0835</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5626,10 +6412,13 @@
         <v>71.09999999999999</v>
       </c>
       <c r="F262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5646,10 +6435,13 @@
         <v>71.09999999999999</v>
       </c>
       <c r="F263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5666,10 +6458,13 @@
         <v>71.09999999999999</v>
       </c>
       <c r="F264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5686,10 +6481,13 @@
         <v>70.23999999999999</v>
       </c>
       <c r="F265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5706,10 +6504,13 @@
         <v>70.23999999999999</v>
       </c>
       <c r="F266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+        <v>5772.6384</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -5726,10 +6527,13 @@
         <v>70.23999999999999</v>
       </c>
       <c r="F267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+        <v>5616.5218</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5746,6 +6550,9 @@
         <v>70.25</v>
       </c>
       <c r="F268">
+        <v>7109.87</v>
+      </c>
+      <c r="G268">
         <v>0</v>
       </c>
     </row>
